--- a/biology/Botanique/Dypsis/Dypsis.xlsx
+++ b/biology/Botanique/Dypsis/Dypsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dypsis est un genre de la famille des Arecaceae (Palmiers), comprenant un grand nombre d'espèces (plus de 160) natives de la Tanzanie, de l'archipel des Comores, et surtout de Madagascar.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce genre possède un grand nombre de synonymes [1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce genre possède un grand nombre de synonymes :
 Drypsis 		Duch.
 Phloga 		Noronha ex Hook.f.
 Dypsidium 	Baill.
@@ -549,12 +563,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
 Sous-tribu des Dypsidinae
-Ce genre partage sa sous-tribu avec les genres suivant:  Chrysalidocarpus, Vonitra, Lemurophoenix, Marojejya, Masoala [2].
+Ce genre partage sa sous-tribu avec les genres suivant:  Chrysalidocarpus, Vonitra, Lemurophoenix, Marojejya, Masoala .
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liste des 151 espèces acceptées, après la grande modification de 2022 (Eiserhardt et al.)[2], ainsi que sur " Plants of the World online (POWO)                (10 aout 2023)[3] ". Cette liste comporte aussi les espèces transférées vers la résurrection des deux genres précédemment synonymisés  Chrysalidocarpus (15 espèces) et  Vonitra (4 espèces).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des 151 espèces acceptées, après la grande modification de 2022 (Eiserhardt et al.), ainsi que sur " Plants of the World online (POWO)                (10 aout 2023) ". Cette liste comporte aussi les espèces transférées vers la résurrection des deux genres précédemment synonymisés  Chrysalidocarpus (15 espèces) et  Vonitra (4 espèces).
 Dypsis acaulis J.Dransf. in J.Dransf. &amp; H.Beentje, Palms Madagascar: 409 (1995).
 Dypsis acuminum   = Chrysalidocarpus acuminum 	Jum.    (1922)
 Dypsis albofarinosa Hodel &amp; Marcus, Palms (1999+) 48: 91 (2004).
